--- a/biology/Histoire de la zoologie et de la botanique/John_Eliot_Howard/John_Eliot_Howard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Eliot_Howard/John_Eliot_Howard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Eliot Howard (Plaistow dans l'Essex, 11 décembre 1807 - 12 mai 1883 [1]) est un botaniste et pharmacien britannique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Eliot Howard (Plaistow dans l'Essex, 11 décembre 1807 - 12 mai 1883 ) est un botaniste et pharmacien britannique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Eliot Howard est le second fils de Luke Howard et Mariabella Eliot. Son père, célèbre météorologiste est pharmacien. Il a reçu une éducation à domicile, mis à part deux ans à la  Josiah Forster's School [2]. En 1823, il est apprenti chez son père, à Stratford, et il étudie la chimie pratique. Il devient associé en 1828. Il se spécialise sur le quinquina et est fait membre de la Royal Society en 1874.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Eliot Howard est le second fils de Luke Howard et Mariabella Eliot. Son père, célèbre météorologiste est pharmacien. Il a reçu une éducation à domicile, mis à part deux ans à la  Josiah Forster's School . En 1823, il est apprenti chez son père, à Stratford, et il étudie la chimie pratique. Il devient associé en 1828. Il se spécialise sur le quinquina et est fait membre de la Royal Society en 1874.
 </t>
         </is>
       </c>
